--- a/biology/Médecine/Intoxication_au_fluor/Intoxication_au_fluor.xlsx
+++ b/biology/Médecine/Intoxication_au_fluor/Intoxication_au_fluor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fluor est un allié non négligeable pour la bonne santé des dents. Il s’incorpore aux couches superficielles de l’émail dentaire pour la rendre plus résistante aux attaques des acides. Cet élément est essentiellement utilisé dans la prévention des caries dentaires, d'où sa présence dans les dentifrices notamment pour les enfants ainsi que dans les rinces-bouche. Il peut aussi parfois être proposé dans le cadre du traitement de l’ostéoporose. Cependant, cet élément reste pour la plupart des formes de vie un véritable poison.
 Une absorption trop importante de fluor entraîne des effets d'intoxication dans diverses régions et peut aller jusqu'à la mort de l'individu concerné. En effet, en toxicologie, le fluor est reconnu comme au moins aussi toxique que le mercure et à peine moins toxique que l'arsenic[réf. nécessaire], l'élément chimique le plus toxique du tableau périodique.
@@ -512,17 +524,19 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'intoxication au fluor peut avoir lieu de manière aiguë ou lente par l'apport chronique de fluor (par exemple par une eau contaminée, dentifrice, médicaments contenant du fluor, thé).
 Les symptômes d'un empoisonnement aigu au fluorure sont multiples : douleur gastro-intestinale, nausée, vomissements, maux de tête. Ils peuvent apparaître même si le sujet a ingéré des doses aussi faibles que 0,1 à 0,3 mg/kg, soit 50 fois moins que la dose probable létale qui est de 5 mg/kg. Comme son nom l'indique la DPL est une dose probable, c'est-à-dire que si un individu consomme une telle dose il ne va pas forcément décéder mais il doit être considéré comme un état d'urgence. Dans ce cas, un traitement médical et une hospitalisation sont requis.
 Une intoxication plus grave engendre des troubles psychiques graves qui peuvent conduire à la perte de la volonté, voire de la folie, surtout lorsque cette intoxication se produit durant la phase de croissance. La mort peut être le résultat d'un empoisonnement au fluor, elle est généralement due, pour ce type de cas, à une insuffisance cardiaque ou à une paralysie respiratoire[réf. nécessaire].
 Le fluor peut entrainer une fluorose dentaire, une fluorose osseuse, une fluorose ankylosante.
-L'excès de fluor peut entrainer le genu valgum, l'ostéoporose et l'osteosclérose[1],[2],[3],[4],[5].
-Le fluor peut augmenter le risque d'anémie notamment en détruisant les erythrocytes[6],[7],[8]. L'ingestion de fluor stoppe l'absorption de compléments alimentaire oraux contenant du fer et de l'acide folique[6].
-Le fluor détruit les microvilli de la muqueuse gastrointestinale résultant en une baisse des nutriments absorbés[6].
-Le fluor peut entrainer une cachexie, une perte d'appétit[9].
-Le fluorure s'accumule dans la glande pinéale[10]. La glande pinéale contient la même quantité de fluorure que les dents chez les sujets âgés[10]. Les concentrations de calcium et de fluorure dans la glande pinéale sont corrélées[10]. Dans la pinéale, le fluor entraine une baisse du nombre de pinealocytes, similaire à celle observée durant la vieillesse ou lors d'une exposition continue à la lumière[11].
+L'excès de fluor peut entrainer le genu valgum, l'ostéoporose et l'osteosclérose.
+Le fluor peut augmenter le risque d'anémie notamment en détruisant les erythrocytes. L'ingestion de fluor stoppe l'absorption de compléments alimentaire oraux contenant du fer et de l'acide folique.
+Le fluor détruit les microvilli de la muqueuse gastrointestinale résultant en une baisse des nutriments absorbés.
+Le fluor peut entrainer une cachexie, une perte d'appétit.
+Le fluorure s'accumule dans la glande pinéale. La glande pinéale contient la même quantité de fluorure que les dents chez les sujets âgés. Les concentrations de calcium et de fluorure dans la glande pinéale sont corrélées. Dans la pinéale, le fluor entraine une baisse du nombre de pinealocytes, similaire à celle observée durant la vieillesse ou lors d'une exposition continue à la lumière.
 </t>
         </is>
       </c>
@@ -551,7 +565,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fluorures sont cumulatifs et persistants d'où leur grande dangerosité. C'est pourquoi les individus qui, enfant, avalaient le dentifrice lorsqu'ils se brossaient les dents sont plus exposés à de telles intoxications.[réf. nécessaire] 
 Le fluorure est caractérisé par divers mécanismes de toxicité. Initialement, le fluorure ingéré affecte localement la muqueuse intestinale. Il peut alors former de l'acide fluorhydrique dans l'estomac, ce qui mène à l'irritation du gros intestin à cause d'effets corrosifs. Cet acide agit de façon corrosif sur le revêtement épithélial de la voie gastro-intestinale. À la suite de l'ingestion, la voie gastro-intestinale constitue le premier, ainsi que le système le plus souvent affecté.[réf. nécessaire]
@@ -583,7 +599,9 @@
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque année, des milliers de cas d'empoisonnement au fluorure sont rapportés aux centres anti-poison des États-Unis à la suite d'une ingestion excessive de fluorure retrouvé dans les produits dentaires.[réf. nécessaire]
 </t>
